--- a/biology/Histoire de la zoologie et de la botanique/William_Chapman_Hewitson/William_Chapman_Hewitson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Chapman_Hewitson/William_Chapman_Hewitson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Chapman Hewitson est un naturaliste britannique, né le 9 janvier 1806 à Newcastle upon Tyne et mort le 28 mai 1878.
 Grand collectionneur, ce naturaliste se consacre particulièrement aux coléoptères et aux lépidoptères ainsi qu’aux nids d’oiseaux.
@@ -513,7 +525,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui sont dédiées :
 Pedaliodes hewitsoni (Staudinger, 1897)...</t>
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1865 : Illustrations of diurnal Lepidoptera. Part I. Lycaenidae. John Van Horst, Londres (2) : 37–76, pl. 17–30
 1867 : Illustrations of diurnal Lepidoptera. Part I. Lycaenidae. John Van Horst, Londres (3) : 77–114, pl. 31–46
